--- a/colectivodata20251/data/usuarios_sistema_completo.xlsx
+++ b/colectivodata20251/data/usuarios_sistema_completo.xlsx
@@ -1,20 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aprendizsia3\Desktop\AnalsisAsistencia\colectivodata20251\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4810925A-6874-4EB4-8110-9A1CE7AD8F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$501</definedName>
+  </definedNames>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2508" uniqueCount="1764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2517" uniqueCount="1765">
   <si>
     <t>id</t>
   </si>
@@ -5306,16 +5315,19 @@
   </si>
   <si>
     <t>Ingenieria Industrial</t>
+  </si>
+  <si>
+    <t>medellin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5379,13 +5391,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5423,7 +5443,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -5457,6 +5477,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -5491,9 +5512,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5666,14 +5688,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="68.85546875" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5699,7 +5733,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5722,7 +5756,7 @@
         <v>37128</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5745,7 +5779,7 @@
         <v>36256</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5768,7 +5802,7 @@
         <v>34728</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5784,11 +5818,14 @@
       <c r="E5" t="s">
         <v>1508</v>
       </c>
+      <c r="F5" t="s">
+        <v>1764</v>
+      </c>
       <c r="H5" t="s">
         <v>1758</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5811,7 +5848,7 @@
         <v>36807</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5827,11 +5864,14 @@
       <c r="E7" t="s">
         <v>1508</v>
       </c>
+      <c r="F7" t="s">
+        <v>1764</v>
+      </c>
       <c r="H7" t="s">
         <v>1759</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5847,11 +5887,14 @@
       <c r="E8" t="s">
         <v>1508</v>
       </c>
+      <c r="F8" t="s">
+        <v>1764</v>
+      </c>
       <c r="H8" t="s">
         <v>1759</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5867,11 +5910,14 @@
       <c r="E9" t="s">
         <v>1508</v>
       </c>
+      <c r="F9" t="s">
+        <v>1764</v>
+      </c>
       <c r="H9" t="s">
         <v>1759</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5894,7 +5940,7 @@
         <v>37692</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5910,11 +5956,14 @@
       <c r="E11" t="s">
         <v>1508</v>
       </c>
+      <c r="F11" t="s">
+        <v>1764</v>
+      </c>
       <c r="H11" t="s">
         <v>1760</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5937,7 +5986,7 @@
         <v>36354</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5960,7 +6009,7 @@
         <v>36671</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5976,11 +6025,14 @@
       <c r="E14" t="s">
         <v>1508</v>
       </c>
+      <c r="F14" t="s">
+        <v>1764</v>
+      </c>
       <c r="H14" t="s">
         <v>1760</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -6003,7 +6055,7 @@
         <v>38263</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -6019,11 +6071,14 @@
       <c r="E16" t="s">
         <v>1508</v>
       </c>
+      <c r="F16" t="s">
+        <v>1764</v>
+      </c>
       <c r="H16" t="s">
         <v>1759</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -6039,11 +6094,14 @@
       <c r="E17" t="s">
         <v>1508</v>
       </c>
+      <c r="F17" t="s">
+        <v>1764</v>
+      </c>
       <c r="H17" t="s">
         <v>1761</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -6059,11 +6117,14 @@
       <c r="E18" t="s">
         <v>1508</v>
       </c>
+      <c r="F18" t="s">
+        <v>1764</v>
+      </c>
       <c r="H18" t="s">
         <v>1761</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -6083,7 +6144,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -6106,7 +6167,7 @@
         <v>35141</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -6129,7 +6190,7 @@
         <v>35210</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -6152,7 +6213,7 @@
         <v>38626</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -6175,7 +6236,7 @@
         <v>35189</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -6195,7 +6256,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -6215,7 +6276,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -6235,7 +6296,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -6255,7 +6316,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -6275,7 +6336,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -6295,7 +6356,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -6318,7 +6379,7 @@
         <v>35355</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -6338,7 +6399,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -6361,7 +6422,7 @@
         <v>34595</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -6384,7 +6445,7 @@
         <v>36337</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -6404,7 +6465,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -6427,7 +6488,7 @@
         <v>36694</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -6450,7 +6511,7 @@
         <v>39022</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -6473,7 +6534,7 @@
         <v>35863</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -6496,7 +6557,7 @@
         <v>36390</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -6519,7 +6580,7 @@
         <v>36842</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -6542,7 +6603,7 @@
         <v>36525</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -6565,7 +6626,7 @@
         <v>38362</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -6585,7 +6646,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -6608,7 +6669,7 @@
         <v>36501</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -6631,7 +6692,7 @@
         <v>35398</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -6654,7 +6715,7 @@
         <v>35320</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -6674,7 +6735,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -6694,7 +6755,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -6714,7 +6775,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -6734,7 +6795,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -6757,7 +6818,7 @@
         <v>38124</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -6777,7 +6838,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -6800,7 +6861,7 @@
         <v>37060</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -6820,7 +6881,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -6840,7 +6901,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -6860,7 +6921,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -6883,7 +6944,7 @@
         <v>37362</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -6903,7 +6964,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -6926,7 +6987,7 @@
         <v>37183</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -6949,7 +7010,7 @@
         <v>34793</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -6969,7 +7030,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -6992,7 +7053,7 @@
         <v>37848</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -7015,7 +7076,7 @@
         <v>35790</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -7035,7 +7096,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -7055,7 +7116,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -7078,7 +7139,7 @@
         <v>35419</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -7101,7 +7162,7 @@
         <v>38454</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -7121,7 +7182,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -7141,7 +7202,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -7161,7 +7222,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -7184,7 +7245,7 @@
         <v>35907</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -7204,7 +7265,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -7227,7 +7288,7 @@
         <v>35199</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -7250,7 +7311,7 @@
         <v>35052</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -7273,7 +7334,7 @@
         <v>35071</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -7293,7 +7354,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -7316,7 +7377,7 @@
         <v>36937</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -7336,7 +7397,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -7359,7 +7420,7 @@
         <v>38829</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -7379,7 +7440,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -7402,7 +7463,7 @@
         <v>37526</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -7425,7 +7486,7 @@
         <v>35107</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -7448,7 +7509,7 @@
         <v>37577</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -7471,7 +7532,7 @@
         <v>36892</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -7491,7 +7552,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -7511,7 +7572,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -7531,7 +7592,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -7554,7 +7615,7 @@
         <v>37989</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -7574,7 +7635,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -7594,7 +7655,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -7614,7 +7675,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -7637,7 +7698,7 @@
         <v>37893</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -7660,7 +7721,7 @@
         <v>36472</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -7680,7 +7741,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -7700,7 +7761,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -7720,7 +7781,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -7743,7 +7804,7 @@
         <v>38737</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -7766,7 +7827,7 @@
         <v>36613</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -7786,7 +7847,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -7809,7 +7870,7 @@
         <v>39049</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -7832,7 +7893,7 @@
         <v>37667</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -7852,7 +7913,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -7875,7 +7936,7 @@
         <v>38786</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -7895,7 +7956,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -7915,7 +7976,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -7935,7 +7996,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -7955,7 +8016,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -7975,7 +8036,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -7995,7 +8056,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -8015,7 +8076,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -8035,7 +8096,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -8055,7 +8116,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -8075,7 +8136,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -8095,7 +8156,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -8118,7 +8179,7 @@
         <v>37121</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -8141,7 +8202,7 @@
         <v>35664</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -8164,7 +8225,7 @@
         <v>34448</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -8184,7 +8245,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -8204,7 +8265,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -8227,7 +8288,7 @@
         <v>37629</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -8247,7 +8308,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -8270,7 +8331,7 @@
         <v>35347</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -8293,7 +8354,7 @@
         <v>35191</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -8316,7 +8377,7 @@
         <v>35888</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -8336,7 +8397,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -8356,7 +8417,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -8376,7 +8437,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -8399,7 +8460,7 @@
         <v>35726</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -8419,7 +8480,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -8442,7 +8503,7 @@
         <v>36287</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -8465,7 +8526,7 @@
         <v>38276</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -8485,7 +8546,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -8508,7 +8569,7 @@
         <v>37623</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -8531,7 +8592,7 @@
         <v>37543</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -8551,7 +8612,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -8574,7 +8635,7 @@
         <v>37960</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -8597,7 +8658,7 @@
         <v>38168</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -8617,7 +8678,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -8637,7 +8698,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -8657,7 +8718,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -8677,7 +8738,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -8700,7 +8761,7 @@
         <v>35786</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -8723,7 +8784,7 @@
         <v>35444</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -8746,7 +8807,7 @@
         <v>35633</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -8769,7 +8830,7 @@
         <v>35620</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -8792,7 +8853,7 @@
         <v>38732</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -8812,7 +8873,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -8832,7 +8893,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -8852,7 +8913,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -8875,7 +8936,7 @@
         <v>36940</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -8895,7 +8956,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -8915,7 +8976,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -8938,7 +8999,7 @@
         <v>37052</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -8961,7 +9022,7 @@
         <v>35931</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -8981,7 +9042,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -9004,7 +9065,7 @@
         <v>37751</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -9027,7 +9088,7 @@
         <v>36544</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -9050,7 +9111,7 @@
         <v>35481</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -9073,7 +9134,7 @@
         <v>36426</v>
       </c>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -9093,7 +9154,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -9116,7 +9177,7 @@
         <v>36590</v>
       </c>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -9139,7 +9200,7 @@
         <v>38902</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -9159,7 +9220,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -9182,7 +9243,7 @@
         <v>37575</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -9205,7 +9266,7 @@
         <v>35184</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -9225,7 +9286,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -9245,7 +9306,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -9268,7 +9329,7 @@
         <v>34997</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -9288,7 +9349,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -9308,7 +9369,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -9331,7 +9392,7 @@
         <v>34624</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -9351,7 +9412,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
@@ -9374,7 +9435,7 @@
         <v>37157</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -9397,7 +9458,7 @@
         <v>35048</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -9420,7 +9481,7 @@
         <v>37880</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -9440,7 +9501,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -9463,7 +9524,7 @@
         <v>34501</v>
       </c>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -9486,7 +9547,7 @@
         <v>35829</v>
       </c>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -9509,7 +9570,7 @@
         <v>36872</v>
       </c>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -9529,7 +9590,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -9552,7 +9613,7 @@
         <v>36387</v>
       </c>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -9572,7 +9633,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -9595,7 +9656,7 @@
         <v>36921</v>
       </c>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -9618,7 +9679,7 @@
         <v>35127</v>
       </c>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -9641,7 +9702,7 @@
         <v>38767</v>
       </c>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
@@ -9661,7 +9722,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
@@ -9681,7 +9742,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
@@ -9701,7 +9762,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
@@ -9721,7 +9782,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
@@ -9741,7 +9802,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
@@ -9761,7 +9822,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
@@ -9784,7 +9845,7 @@
         <v>37398</v>
       </c>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
@@ -9807,7 +9868,7 @@
         <v>38090</v>
       </c>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
@@ -9827,7 +9888,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
@@ -9847,7 +9908,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
@@ -9867,7 +9928,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="196" spans="1:8">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
@@ -9890,7 +9951,7 @@
         <v>37212</v>
       </c>
     </row>
-    <row r="197" spans="1:8">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
@@ -9913,7 +9974,7 @@
         <v>38506</v>
       </c>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
@@ -9936,7 +9997,7 @@
         <v>34663</v>
       </c>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
@@ -9956,7 +10017,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="200" spans="1:8">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
@@ -9976,7 +10037,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
@@ -9996,7 +10057,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
@@ -10019,7 +10080,7 @@
         <v>37525</v>
       </c>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
@@ -10039,7 +10100,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
@@ -10062,7 +10123,7 @@
         <v>35094</v>
       </c>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
@@ -10082,7 +10143,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
@@ -10105,7 +10166,7 @@
         <v>35980</v>
       </c>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
@@ -10125,7 +10186,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
@@ -10145,7 +10206,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
@@ -10168,7 +10229,7 @@
         <v>38543</v>
       </c>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
@@ -10188,7 +10249,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
@@ -10208,7 +10269,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
@@ -10228,7 +10289,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
@@ -10248,7 +10309,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
@@ -10271,7 +10332,7 @@
         <v>36045</v>
       </c>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
@@ -10291,7 +10352,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
@@ -10311,7 +10372,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
@@ -10331,7 +10392,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
@@ -10351,7 +10412,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
@@ -10374,7 +10435,7 @@
         <v>34673</v>
       </c>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>219</v>
       </c>
@@ -10397,7 +10458,7 @@
         <v>36492</v>
       </c>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>220</v>
       </c>
@@ -10417,7 +10478,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>221</v>
       </c>
@@ -10437,7 +10498,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>222</v>
       </c>
@@ -10457,7 +10518,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="224" spans="1:8">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>223</v>
       </c>
@@ -10480,7 +10541,7 @@
         <v>36824</v>
       </c>
     </row>
-    <row r="225" spans="1:8">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>224</v>
       </c>
@@ -10500,7 +10561,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="226" spans="1:8">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>225</v>
       </c>
@@ -10520,7 +10581,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="227" spans="1:8">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>226</v>
       </c>
@@ -10543,7 +10604,7 @@
         <v>35404</v>
       </c>
     </row>
-    <row r="228" spans="1:8">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>227</v>
       </c>
@@ -10563,7 +10624,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="229" spans="1:8">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>228</v>
       </c>
@@ -10586,7 +10647,7 @@
         <v>35213</v>
       </c>
     </row>
-    <row r="230" spans="1:8">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>229</v>
       </c>
@@ -10606,7 +10667,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="231" spans="1:8">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>230</v>
       </c>
@@ -10626,7 +10687,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="232" spans="1:8">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>231</v>
       </c>
@@ -10649,7 +10710,7 @@
         <v>38659</v>
       </c>
     </row>
-    <row r="233" spans="1:8">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>232</v>
       </c>
@@ -10672,7 +10733,7 @@
         <v>34583</v>
       </c>
     </row>
-    <row r="234" spans="1:8">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>233</v>
       </c>
@@ -10695,7 +10756,7 @@
         <v>38499</v>
       </c>
     </row>
-    <row r="235" spans="1:8">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>234</v>
       </c>
@@ -10715,7 +10776,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="236" spans="1:8">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>235</v>
       </c>
@@ -10735,7 +10796,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="237" spans="1:8">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>236</v>
       </c>
@@ -10758,7 +10819,7 @@
         <v>38515</v>
       </c>
     </row>
-    <row r="238" spans="1:8">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>237</v>
       </c>
@@ -10781,7 +10842,7 @@
         <v>34785</v>
       </c>
     </row>
-    <row r="239" spans="1:8">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>238</v>
       </c>
@@ -10801,7 +10862,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="240" spans="1:8">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>239</v>
       </c>
@@ -10824,7 +10885,7 @@
         <v>39150</v>
       </c>
     </row>
-    <row r="241" spans="1:8">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>240</v>
       </c>
@@ -10847,7 +10908,7 @@
         <v>37145</v>
       </c>
     </row>
-    <row r="242" spans="1:8">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>241</v>
       </c>
@@ -10870,7 +10931,7 @@
         <v>35901</v>
       </c>
     </row>
-    <row r="243" spans="1:8">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>242</v>
       </c>
@@ -10890,7 +10951,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="244" spans="1:8">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>243</v>
       </c>
@@ -10913,7 +10974,7 @@
         <v>38326</v>
       </c>
     </row>
-    <row r="245" spans="1:8">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>244</v>
       </c>
@@ -10936,7 +10997,7 @@
         <v>38957</v>
       </c>
     </row>
-    <row r="246" spans="1:8">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>245</v>
       </c>
@@ -10956,7 +11017,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="247" spans="1:8">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>246</v>
       </c>
@@ -10979,7 +11040,7 @@
         <v>34855</v>
       </c>
     </row>
-    <row r="248" spans="1:8">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>247</v>
       </c>
@@ -10999,7 +11060,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="249" spans="1:8">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>248</v>
       </c>
@@ -11022,7 +11083,7 @@
         <v>34985</v>
       </c>
     </row>
-    <row r="250" spans="1:8">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>249</v>
       </c>
@@ -11045,7 +11106,7 @@
         <v>34975</v>
       </c>
     </row>
-    <row r="251" spans="1:8">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>250</v>
       </c>
@@ -11068,7 +11129,7 @@
         <v>37636</v>
       </c>
     </row>
-    <row r="252" spans="1:8">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>251</v>
       </c>
@@ -11091,7 +11152,7 @@
         <v>38151</v>
       </c>
     </row>
-    <row r="253" spans="1:8">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>252</v>
       </c>
@@ -11114,7 +11175,7 @@
         <v>36876</v>
       </c>
     </row>
-    <row r="254" spans="1:8">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>253</v>
       </c>
@@ -11137,7 +11198,7 @@
         <v>35041</v>
       </c>
     </row>
-    <row r="255" spans="1:8">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>254</v>
       </c>
@@ -11157,7 +11218,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="256" spans="1:8">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>255</v>
       </c>
@@ -11180,7 +11241,7 @@
         <v>36647</v>
       </c>
     </row>
-    <row r="257" spans="1:8">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>256</v>
       </c>
@@ -11200,7 +11261,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="258" spans="1:8">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>257</v>
       </c>
@@ -11220,7 +11281,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="259" spans="1:8">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>258</v>
       </c>
@@ -11243,7 +11304,7 @@
         <v>37403</v>
       </c>
     </row>
-    <row r="260" spans="1:8">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>259</v>
       </c>
@@ -11263,7 +11324,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="261" spans="1:8">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>260</v>
       </c>
@@ -11283,7 +11344,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="262" spans="1:8">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>261</v>
       </c>
@@ -11306,7 +11367,7 @@
         <v>34556</v>
       </c>
     </row>
-    <row r="263" spans="1:8">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>262</v>
       </c>
@@ -11326,7 +11387,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="264" spans="1:8">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>263</v>
       </c>
@@ -11349,7 +11410,7 @@
         <v>35817</v>
       </c>
     </row>
-    <row r="265" spans="1:8">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>264</v>
       </c>
@@ -11372,7 +11433,7 @@
         <v>35529</v>
       </c>
     </row>
-    <row r="266" spans="1:8">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>265</v>
       </c>
@@ -11392,7 +11453,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="267" spans="1:8">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>266</v>
       </c>
@@ -11415,7 +11476,7 @@
         <v>39062</v>
       </c>
     </row>
-    <row r="268" spans="1:8">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>267</v>
       </c>
@@ -11435,7 +11496,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="269" spans="1:8">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>268</v>
       </c>
@@ -11455,7 +11516,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="270" spans="1:8">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>269</v>
       </c>
@@ -11478,7 +11539,7 @@
         <v>34599</v>
       </c>
     </row>
-    <row r="271" spans="1:8">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>270</v>
       </c>
@@ -11498,7 +11559,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="272" spans="1:8">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>271</v>
       </c>
@@ -11521,7 +11582,7 @@
         <v>36574</v>
       </c>
     </row>
-    <row r="273" spans="1:8">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>272</v>
       </c>
@@ -11544,7 +11605,7 @@
         <v>37809</v>
       </c>
     </row>
-    <row r="274" spans="1:8">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>273</v>
       </c>
@@ -11567,7 +11628,7 @@
         <v>38300</v>
       </c>
     </row>
-    <row r="275" spans="1:8">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>274</v>
       </c>
@@ -11590,7 +11651,7 @@
         <v>38973</v>
       </c>
     </row>
-    <row r="276" spans="1:8">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>275</v>
       </c>
@@ -11610,7 +11671,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="277" spans="1:8">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>276</v>
       </c>
@@ -11633,7 +11694,7 @@
         <v>37458</v>
       </c>
     </row>
-    <row r="278" spans="1:8">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>277</v>
       </c>
@@ -11656,7 +11717,7 @@
         <v>35732</v>
       </c>
     </row>
-    <row r="279" spans="1:8">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>278</v>
       </c>
@@ -11679,7 +11740,7 @@
         <v>36275</v>
       </c>
     </row>
-    <row r="280" spans="1:8">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>279</v>
       </c>
@@ -11699,7 +11760,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="281" spans="1:8">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>280</v>
       </c>
@@ -11719,7 +11780,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="282" spans="1:8">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>281</v>
       </c>
@@ -11742,7 +11803,7 @@
         <v>35149</v>
       </c>
     </row>
-    <row r="283" spans="1:8">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>282</v>
       </c>
@@ -11765,7 +11826,7 @@
         <v>35883</v>
       </c>
     </row>
-    <row r="284" spans="1:8">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>283</v>
       </c>
@@ -11785,7 +11846,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="285" spans="1:8">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>284</v>
       </c>
@@ -11805,7 +11866,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="286" spans="1:8">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>285</v>
       </c>
@@ -11828,7 +11889,7 @@
         <v>34449</v>
       </c>
     </row>
-    <row r="287" spans="1:8">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>286</v>
       </c>
@@ -11848,7 +11909,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="288" spans="1:8">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>287</v>
       </c>
@@ -11868,7 +11929,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="289" spans="1:8">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>288</v>
       </c>
@@ -11891,7 +11952,7 @@
         <v>37383</v>
       </c>
     </row>
-    <row r="290" spans="1:8">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>289</v>
       </c>
@@ -11914,7 +11975,7 @@
         <v>36337</v>
       </c>
     </row>
-    <row r="291" spans="1:8">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>290</v>
       </c>
@@ -11934,7 +11995,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="292" spans="1:8">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>291</v>
       </c>
@@ -11957,7 +12018,7 @@
         <v>35961</v>
       </c>
     </row>
-    <row r="293" spans="1:8">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>292</v>
       </c>
@@ -11977,7 +12038,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="294" spans="1:8">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>293</v>
       </c>
@@ -12000,7 +12061,7 @@
         <v>34803</v>
       </c>
     </row>
-    <row r="295" spans="1:8">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>294</v>
       </c>
@@ -12023,7 +12084,7 @@
         <v>38681</v>
       </c>
     </row>
-    <row r="296" spans="1:8">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>295</v>
       </c>
@@ -12043,7 +12104,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="297" spans="1:8">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>296</v>
       </c>
@@ -12063,7 +12124,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="298" spans="1:8">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>297</v>
       </c>
@@ -12083,7 +12144,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="299" spans="1:8">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>298</v>
       </c>
@@ -12103,7 +12164,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="300" spans="1:8">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>299</v>
       </c>
@@ -12123,7 +12184,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="301" spans="1:8">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>300</v>
       </c>
@@ -12143,7 +12204,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="302" spans="1:8">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>301</v>
       </c>
@@ -12166,7 +12227,7 @@
         <v>38196</v>
       </c>
     </row>
-    <row r="303" spans="1:8">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>302</v>
       </c>
@@ -12189,7 +12250,7 @@
         <v>37875</v>
       </c>
     </row>
-    <row r="304" spans="1:8">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>303</v>
       </c>
@@ -12212,7 +12273,7 @@
         <v>38739</v>
       </c>
     </row>
-    <row r="305" spans="1:8">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>304</v>
       </c>
@@ -12235,7 +12296,7 @@
         <v>38425</v>
       </c>
     </row>
-    <row r="306" spans="1:8">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>305</v>
       </c>
@@ -12255,7 +12316,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="307" spans="1:8">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>306</v>
       </c>
@@ -12275,7 +12336,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="308" spans="1:8">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>307</v>
       </c>
@@ -12295,7 +12356,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="309" spans="1:8">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>308</v>
       </c>
@@ -12318,7 +12379,7 @@
         <v>37474</v>
       </c>
     </row>
-    <row r="310" spans="1:8">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>309</v>
       </c>
@@ -12341,7 +12402,7 @@
         <v>35140</v>
       </c>
     </row>
-    <row r="311" spans="1:8">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>310</v>
       </c>
@@ -12364,7 +12425,7 @@
         <v>38832</v>
       </c>
     </row>
-    <row r="312" spans="1:8">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>311</v>
       </c>
@@ -12387,7 +12448,7 @@
         <v>37797</v>
       </c>
     </row>
-    <row r="313" spans="1:8">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>312</v>
       </c>
@@ -12407,7 +12468,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="314" spans="1:8">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>313</v>
       </c>
@@ -12430,7 +12491,7 @@
         <v>36994</v>
       </c>
     </row>
-    <row r="315" spans="1:8">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>314</v>
       </c>
@@ -12453,7 +12514,7 @@
         <v>35914</v>
       </c>
     </row>
-    <row r="316" spans="1:8">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>315</v>
       </c>
@@ -12473,7 +12534,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="317" spans="1:8">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>316</v>
       </c>
@@ -12496,7 +12557,7 @@
         <v>35222</v>
       </c>
     </row>
-    <row r="318" spans="1:8">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>317</v>
       </c>
@@ -12516,7 +12577,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="319" spans="1:8">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>318</v>
       </c>
@@ -12539,7 +12600,7 @@
         <v>37824</v>
       </c>
     </row>
-    <row r="320" spans="1:8">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>319</v>
       </c>
@@ -12562,7 +12623,7 @@
         <v>38700</v>
       </c>
     </row>
-    <row r="321" spans="1:8">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>320</v>
       </c>
@@ -12585,7 +12646,7 @@
         <v>38854</v>
       </c>
     </row>
-    <row r="322" spans="1:8">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>321</v>
       </c>
@@ -12608,7 +12669,7 @@
         <v>36835</v>
       </c>
     </row>
-    <row r="323" spans="1:8">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>322</v>
       </c>
@@ -12628,7 +12689,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="324" spans="1:8">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>323</v>
       </c>
@@ -12651,7 +12712,7 @@
         <v>38076</v>
       </c>
     </row>
-    <row r="325" spans="1:8">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>324</v>
       </c>
@@ -12674,7 +12735,7 @@
         <v>37862</v>
       </c>
     </row>
-    <row r="326" spans="1:8">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>325</v>
       </c>
@@ -12694,7 +12755,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="327" spans="1:8">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>326</v>
       </c>
@@ -12714,7 +12775,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="328" spans="1:8">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>327</v>
       </c>
@@ -12737,7 +12798,7 @@
         <v>36940</v>
       </c>
     </row>
-    <row r="329" spans="1:8">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>328</v>
       </c>
@@ -12760,7 +12821,7 @@
         <v>35361</v>
       </c>
     </row>
-    <row r="330" spans="1:8">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>329</v>
       </c>
@@ -12780,7 +12841,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="331" spans="1:8">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>330</v>
       </c>
@@ -12803,7 +12864,7 @@
         <v>37436</v>
       </c>
     </row>
-    <row r="332" spans="1:8">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>331</v>
       </c>
@@ -12826,7 +12887,7 @@
         <v>38713</v>
       </c>
     </row>
-    <row r="333" spans="1:8">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>332</v>
       </c>
@@ -12849,7 +12910,7 @@
         <v>35670</v>
       </c>
     </row>
-    <row r="334" spans="1:8">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>333</v>
       </c>
@@ -12872,7 +12933,7 @@
         <v>38344</v>
       </c>
     </row>
-    <row r="335" spans="1:8">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>334</v>
       </c>
@@ -12892,7 +12953,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="336" spans="1:8">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>335</v>
       </c>
@@ -12912,7 +12973,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="337" spans="1:8">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>336</v>
       </c>
@@ -12935,7 +12996,7 @@
         <v>34774</v>
       </c>
     </row>
-    <row r="338" spans="1:8">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>337</v>
       </c>
@@ -12958,7 +13019,7 @@
         <v>36407</v>
       </c>
     </row>
-    <row r="339" spans="1:8">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>338</v>
       </c>
@@ -12978,7 +13039,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="340" spans="1:8">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>339</v>
       </c>
@@ -12998,7 +13059,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="341" spans="1:8">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>340</v>
       </c>
@@ -13021,7 +13082,7 @@
         <v>34970</v>
       </c>
     </row>
-    <row r="342" spans="1:8">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>341</v>
       </c>
@@ -13044,7 +13105,7 @@
         <v>35889</v>
       </c>
     </row>
-    <row r="343" spans="1:8">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>342</v>
       </c>
@@ -13067,7 +13128,7 @@
         <v>36017</v>
       </c>
     </row>
-    <row r="344" spans="1:8">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>343</v>
       </c>
@@ -13087,7 +13148,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="345" spans="1:8">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>344</v>
       </c>
@@ -13107,7 +13168,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="346" spans="1:8">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>345</v>
       </c>
@@ -13130,7 +13191,7 @@
         <v>37241</v>
       </c>
     </row>
-    <row r="347" spans="1:8">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>346</v>
       </c>
@@ -13153,7 +13214,7 @@
         <v>36650</v>
       </c>
     </row>
-    <row r="348" spans="1:8">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>347</v>
       </c>
@@ -13173,7 +13234,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="349" spans="1:8">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>348</v>
       </c>
@@ -13193,7 +13254,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="350" spans="1:8">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>349</v>
       </c>
@@ -13216,7 +13277,7 @@
         <v>36793</v>
       </c>
     </row>
-    <row r="351" spans="1:8">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>350</v>
       </c>
@@ -13239,7 +13300,7 @@
         <v>37407</v>
       </c>
     </row>
-    <row r="352" spans="1:8">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>351</v>
       </c>
@@ -13259,7 +13320,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="353" spans="1:8">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>352</v>
       </c>
@@ -13282,7 +13343,7 @@
         <v>36180</v>
       </c>
     </row>
-    <row r="354" spans="1:8">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>353</v>
       </c>
@@ -13305,7 +13366,7 @@
         <v>37388</v>
       </c>
     </row>
-    <row r="355" spans="1:8">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>354</v>
       </c>
@@ -13325,7 +13386,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="356" spans="1:8">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>355</v>
       </c>
@@ -13345,7 +13406,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="357" spans="1:8">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>356</v>
       </c>
@@ -13365,7 +13426,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="358" spans="1:8">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>357</v>
       </c>
@@ -13388,7 +13449,7 @@
         <v>35038</v>
       </c>
     </row>
-    <row r="359" spans="1:8">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>358</v>
       </c>
@@ -13411,7 +13472,7 @@
         <v>39007</v>
       </c>
     </row>
-    <row r="360" spans="1:8">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>359</v>
       </c>
@@ -13431,7 +13492,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="361" spans="1:8">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>360</v>
       </c>
@@ -13454,7 +13515,7 @@
         <v>36879</v>
       </c>
     </row>
-    <row r="362" spans="1:8">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>361</v>
       </c>
@@ -13474,7 +13535,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="363" spans="1:8">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>362</v>
       </c>
@@ -13497,7 +13558,7 @@
         <v>37098</v>
       </c>
     </row>
-    <row r="364" spans="1:8">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>363</v>
       </c>
@@ -13520,7 +13581,7 @@
         <v>34943</v>
       </c>
     </row>
-    <row r="365" spans="1:8">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>364</v>
       </c>
@@ -13543,7 +13604,7 @@
         <v>36112</v>
       </c>
     </row>
-    <row r="366" spans="1:8">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>365</v>
       </c>
@@ -13563,7 +13624,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="367" spans="1:8">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>366</v>
       </c>
@@ -13583,7 +13644,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="368" spans="1:8">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>367</v>
       </c>
@@ -13603,7 +13664,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="369" spans="1:8">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>368</v>
       </c>
@@ -13623,7 +13684,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="370" spans="1:8">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>369</v>
       </c>
@@ -13646,7 +13707,7 @@
         <v>34774</v>
       </c>
     </row>
-    <row r="371" spans="1:8">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>370</v>
       </c>
@@ -13666,7 +13727,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="372" spans="1:8">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>371</v>
       </c>
@@ -13689,7 +13750,7 @@
         <v>36900</v>
       </c>
     </row>
-    <row r="373" spans="1:8">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>372</v>
       </c>
@@ -13712,7 +13773,7 @@
         <v>35899</v>
       </c>
     </row>
-    <row r="374" spans="1:8">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>373</v>
       </c>
@@ -13735,7 +13796,7 @@
         <v>38123</v>
       </c>
     </row>
-    <row r="375" spans="1:8">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>374</v>
       </c>
@@ -13758,7 +13819,7 @@
         <v>38486</v>
       </c>
     </row>
-    <row r="376" spans="1:8">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>375</v>
       </c>
@@ -13781,7 +13842,7 @@
         <v>38004</v>
       </c>
     </row>
-    <row r="377" spans="1:8">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>376</v>
       </c>
@@ -13801,7 +13862,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="378" spans="1:8">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>377</v>
       </c>
@@ -13824,7 +13885,7 @@
         <v>37586</v>
       </c>
     </row>
-    <row r="379" spans="1:8">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>378</v>
       </c>
@@ -13844,7 +13905,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="380" spans="1:8">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>379</v>
       </c>
@@ -13867,7 +13928,7 @@
         <v>36317</v>
       </c>
     </row>
-    <row r="381" spans="1:8">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>380</v>
       </c>
@@ -13887,7 +13948,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="382" spans="1:8">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>381</v>
       </c>
@@ -13907,7 +13968,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="383" spans="1:8">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>382</v>
       </c>
@@ -13930,7 +13991,7 @@
         <v>36127</v>
       </c>
     </row>
-    <row r="384" spans="1:8">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>383</v>
       </c>
@@ -13950,7 +14011,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="385" spans="1:8">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>384</v>
       </c>
@@ -13973,7 +14034,7 @@
         <v>34747</v>
       </c>
     </row>
-    <row r="386" spans="1:8">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>385</v>
       </c>
@@ -13996,7 +14057,7 @@
         <v>37746</v>
       </c>
     </row>
-    <row r="387" spans="1:8">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>386</v>
       </c>
@@ -14019,7 +14080,7 @@
         <v>36521</v>
       </c>
     </row>
-    <row r="388" spans="1:8">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>387</v>
       </c>
@@ -14042,7 +14103,7 @@
         <v>35102</v>
       </c>
     </row>
-    <row r="389" spans="1:8">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>388</v>
       </c>
@@ -14062,7 +14123,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="390" spans="1:8">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>389</v>
       </c>
@@ -14085,7 +14146,7 @@
         <v>36181</v>
       </c>
     </row>
-    <row r="391" spans="1:8">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>390</v>
       </c>
@@ -14108,7 +14169,7 @@
         <v>35871</v>
       </c>
     </row>
-    <row r="392" spans="1:8">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>391</v>
       </c>
@@ -14128,7 +14189,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="393" spans="1:8">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>392</v>
       </c>
@@ -14151,7 +14212,7 @@
         <v>36379</v>
       </c>
     </row>
-    <row r="394" spans="1:8">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>393</v>
       </c>
@@ -14171,7 +14232,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="395" spans="1:8">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>394</v>
       </c>
@@ -14194,7 +14255,7 @@
         <v>38859</v>
       </c>
     </row>
-    <row r="396" spans="1:8">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>395</v>
       </c>
@@ -14214,7 +14275,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="397" spans="1:8">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>396</v>
       </c>
@@ -14234,7 +14295,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="398" spans="1:8">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>397</v>
       </c>
@@ -14254,7 +14315,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="399" spans="1:8">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>398</v>
       </c>
@@ -14277,7 +14338,7 @@
         <v>36855</v>
       </c>
     </row>
-    <row r="400" spans="1:8">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>399</v>
       </c>
@@ -14297,7 +14358,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="401" spans="1:8">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>400</v>
       </c>
@@ -14320,7 +14381,7 @@
         <v>37731</v>
       </c>
     </row>
-    <row r="402" spans="1:8">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>401</v>
       </c>
@@ -14343,7 +14404,7 @@
         <v>36454</v>
       </c>
     </row>
-    <row r="403" spans="1:8">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>402</v>
       </c>
@@ -14363,7 +14424,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="404" spans="1:8">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>403</v>
       </c>
@@ -14386,7 +14447,7 @@
         <v>38170</v>
       </c>
     </row>
-    <row r="405" spans="1:8">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>404</v>
       </c>
@@ -14409,7 +14470,7 @@
         <v>38183</v>
       </c>
     </row>
-    <row r="406" spans="1:8">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>405</v>
       </c>
@@ -14429,7 +14490,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="407" spans="1:8">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>406</v>
       </c>
@@ -14449,7 +14510,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="408" spans="1:8">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>407</v>
       </c>
@@ -14472,7 +14533,7 @@
         <v>37575</v>
       </c>
     </row>
-    <row r="409" spans="1:8">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>408</v>
       </c>
@@ -14492,7 +14553,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="410" spans="1:8">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>409</v>
       </c>
@@ -14515,7 +14576,7 @@
         <v>36114</v>
       </c>
     </row>
-    <row r="411" spans="1:8">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>410</v>
       </c>
@@ -14535,7 +14596,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="412" spans="1:8">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>411</v>
       </c>
@@ -14555,7 +14616,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="413" spans="1:8">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>412</v>
       </c>
@@ -14575,7 +14636,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="414" spans="1:8">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>413</v>
       </c>
@@ -14595,7 +14656,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="415" spans="1:8">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>414</v>
       </c>
@@ -14615,7 +14676,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="416" spans="1:8">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>415</v>
       </c>
@@ -14638,7 +14699,7 @@
         <v>37784</v>
       </c>
     </row>
-    <row r="417" spans="1:8">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>416</v>
       </c>
@@ -14658,7 +14719,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="418" spans="1:8">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>417</v>
       </c>
@@ -14681,7 +14742,7 @@
         <v>34959</v>
       </c>
     </row>
-    <row r="419" spans="1:8">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>418</v>
       </c>
@@ -14701,7 +14762,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="420" spans="1:8">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>419</v>
       </c>
@@ -14724,7 +14785,7 @@
         <v>36947</v>
       </c>
     </row>
-    <row r="421" spans="1:8">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>420</v>
       </c>
@@ -14744,7 +14805,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="422" spans="1:8">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>421</v>
       </c>
@@ -14767,7 +14828,7 @@
         <v>37542</v>
       </c>
     </row>
-    <row r="423" spans="1:8">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>422</v>
       </c>
@@ -14790,7 +14851,7 @@
         <v>38428</v>
       </c>
     </row>
-    <row r="424" spans="1:8">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>423</v>
       </c>
@@ -14813,7 +14874,7 @@
         <v>37930</v>
       </c>
     </row>
-    <row r="425" spans="1:8">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>424</v>
       </c>
@@ -14836,7 +14897,7 @@
         <v>36124</v>
       </c>
     </row>
-    <row r="426" spans="1:8">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>425</v>
       </c>
@@ -14856,7 +14917,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="427" spans="1:8">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>426</v>
       </c>
@@ -14879,7 +14940,7 @@
         <v>37248</v>
       </c>
     </row>
-    <row r="428" spans="1:8">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>427</v>
       </c>
@@ -14899,7 +14960,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="429" spans="1:8">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>428</v>
       </c>
@@ -14919,7 +14980,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="430" spans="1:8">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>429</v>
       </c>
@@ -14939,7 +15000,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="431" spans="1:8">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>430</v>
       </c>
@@ -14959,7 +15020,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="432" spans="1:8">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>431</v>
       </c>
@@ -14982,7 +15043,7 @@
         <v>35893</v>
       </c>
     </row>
-    <row r="433" spans="1:8">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>432</v>
       </c>
@@ -15002,7 +15063,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="434" spans="1:8">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>433</v>
       </c>
@@ -15025,7 +15086,7 @@
         <v>35165</v>
       </c>
     </row>
-    <row r="435" spans="1:8">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>434</v>
       </c>
@@ -15045,7 +15106,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="436" spans="1:8">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>435</v>
       </c>
@@ -15065,7 +15126,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="437" spans="1:8">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>436</v>
       </c>
@@ -15085,7 +15146,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="438" spans="1:8">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>437</v>
       </c>
@@ -15108,7 +15169,7 @@
         <v>38762</v>
       </c>
     </row>
-    <row r="439" spans="1:8">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>438</v>
       </c>
@@ -15131,7 +15192,7 @@
         <v>36390</v>
       </c>
     </row>
-    <row r="440" spans="1:8">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>439</v>
       </c>
@@ -15151,7 +15212,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="441" spans="1:8">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>440</v>
       </c>
@@ -15171,7 +15232,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="442" spans="1:8">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>441</v>
       </c>
@@ -15194,7 +15255,7 @@
         <v>39159</v>
       </c>
     </row>
-    <row r="443" spans="1:8">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>442</v>
       </c>
@@ -15214,7 +15275,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="444" spans="1:8">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>443</v>
       </c>
@@ -15237,7 +15298,7 @@
         <v>35097</v>
       </c>
     </row>
-    <row r="445" spans="1:8">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>444</v>
       </c>
@@ -15257,7 +15318,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="446" spans="1:8">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>445</v>
       </c>
@@ -15277,7 +15338,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="447" spans="1:8">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>446</v>
       </c>
@@ -15300,7 +15361,7 @@
         <v>38226</v>
       </c>
     </row>
-    <row r="448" spans="1:8">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>447</v>
       </c>
@@ -15323,7 +15384,7 @@
         <v>38084</v>
       </c>
     </row>
-    <row r="449" spans="1:8">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>448</v>
       </c>
@@ -15346,7 +15407,7 @@
         <v>36348</v>
       </c>
     </row>
-    <row r="450" spans="1:8">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>449</v>
       </c>
@@ -15366,7 +15427,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="451" spans="1:8">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>450</v>
       </c>
@@ -15386,7 +15447,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="452" spans="1:8">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>451</v>
       </c>
@@ -15409,7 +15470,7 @@
         <v>38600</v>
       </c>
     </row>
-    <row r="453" spans="1:8">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>452</v>
       </c>
@@ -15432,7 +15493,7 @@
         <v>35132</v>
       </c>
     </row>
-    <row r="454" spans="1:8">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>453</v>
       </c>
@@ -15455,7 +15516,7 @@
         <v>35418</v>
       </c>
     </row>
-    <row r="455" spans="1:8">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>454</v>
       </c>
@@ -15475,7 +15536,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="456" spans="1:8">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>455</v>
       </c>
@@ -15495,7 +15556,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="457" spans="1:8">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>456</v>
       </c>
@@ -15518,7 +15579,7 @@
         <v>38870</v>
       </c>
     </row>
-    <row r="458" spans="1:8">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>457</v>
       </c>
@@ -15538,7 +15599,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="459" spans="1:8">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>458</v>
       </c>
@@ -15558,7 +15619,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="460" spans="1:8">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>459</v>
       </c>
@@ -15578,7 +15639,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="461" spans="1:8">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>460</v>
       </c>
@@ -15598,7 +15659,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="462" spans="1:8">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>461</v>
       </c>
@@ -15618,7 +15679,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="463" spans="1:8">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>462</v>
       </c>
@@ -15641,7 +15702,7 @@
         <v>38371</v>
       </c>
     </row>
-    <row r="464" spans="1:8">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>463</v>
       </c>
@@ -15661,7 +15722,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="465" spans="1:8">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>464</v>
       </c>
@@ -15681,7 +15742,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="466" spans="1:8">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>465</v>
       </c>
@@ -15701,7 +15762,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="467" spans="1:8">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>466</v>
       </c>
@@ -15721,7 +15782,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="468" spans="1:8">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>467</v>
       </c>
@@ -15744,7 +15805,7 @@
         <v>36734</v>
       </c>
     </row>
-    <row r="469" spans="1:8">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>468</v>
       </c>
@@ -15764,7 +15825,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="470" spans="1:8">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>469</v>
       </c>
@@ -15784,7 +15845,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="471" spans="1:8">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>470</v>
       </c>
@@ -15807,7 +15868,7 @@
         <v>35418</v>
       </c>
     </row>
-    <row r="472" spans="1:8">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>471</v>
       </c>
@@ -15830,7 +15891,7 @@
         <v>37729</v>
       </c>
     </row>
-    <row r="473" spans="1:8">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>472</v>
       </c>
@@ -15853,7 +15914,7 @@
         <v>37604</v>
       </c>
     </row>
-    <row r="474" spans="1:8">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>473</v>
       </c>
@@ -15876,7 +15937,7 @@
         <v>38383</v>
       </c>
     </row>
-    <row r="475" spans="1:8">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>474</v>
       </c>
@@ -15899,7 +15960,7 @@
         <v>36137</v>
       </c>
     </row>
-    <row r="476" spans="1:8">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>475</v>
       </c>
@@ -15919,7 +15980,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="477" spans="1:8">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>476</v>
       </c>
@@ -15939,7 +16000,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="478" spans="1:8">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>477</v>
       </c>
@@ -15959,7 +16020,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="479" spans="1:8">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>478</v>
       </c>
@@ -15979,7 +16040,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="480" spans="1:8">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>479</v>
       </c>
@@ -16002,7 +16063,7 @@
         <v>35634</v>
       </c>
     </row>
-    <row r="481" spans="1:8">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>480</v>
       </c>
@@ -16025,7 +16086,7 @@
         <v>39128</v>
       </c>
     </row>
-    <row r="482" spans="1:8">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>481</v>
       </c>
@@ -16045,7 +16106,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="483" spans="1:8">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>482</v>
       </c>
@@ -16068,7 +16129,7 @@
         <v>38007</v>
       </c>
     </row>
-    <row r="484" spans="1:8">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>483</v>
       </c>
@@ -16088,7 +16149,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="485" spans="1:8">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>484</v>
       </c>
@@ -16108,7 +16169,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="486" spans="1:8">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>485</v>
       </c>
@@ -16128,7 +16189,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="487" spans="1:8">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>486</v>
       </c>
@@ -16148,7 +16209,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="488" spans="1:8">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>487</v>
       </c>
@@ -16168,7 +16229,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="489" spans="1:8">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>488</v>
       </c>
@@ -16191,7 +16252,7 @@
         <v>39032</v>
       </c>
     </row>
-    <row r="490" spans="1:8">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>489</v>
       </c>
@@ -16211,7 +16272,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="491" spans="1:8">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>490</v>
       </c>
@@ -16234,7 +16295,7 @@
         <v>39041</v>
       </c>
     </row>
-    <row r="492" spans="1:8">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>491</v>
       </c>
@@ -16254,7 +16315,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="493" spans="1:8">
+    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>492</v>
       </c>
@@ -16274,7 +16335,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="494" spans="1:8">
+    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>493</v>
       </c>
@@ -16294,7 +16355,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="495" spans="1:8">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>494</v>
       </c>
@@ -16314,7 +16375,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="496" spans="1:8">
+    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>495</v>
       </c>
@@ -16334,7 +16395,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="497" spans="1:8">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>496</v>
       </c>
@@ -16357,7 +16418,7 @@
         <v>36157</v>
       </c>
     </row>
-    <row r="498" spans="1:8">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>497</v>
       </c>
@@ -16380,7 +16441,7 @@
         <v>35031</v>
       </c>
     </row>
-    <row r="499" spans="1:8">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>498</v>
       </c>
@@ -16403,7 +16464,7 @@
         <v>35807</v>
       </c>
     </row>
-    <row r="500" spans="1:8">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>499</v>
       </c>
@@ -16426,7 +16487,7 @@
         <v>37629</v>
       </c>
     </row>
-    <row r="501" spans="1:8">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>500</v>
       </c>
@@ -16447,6 +16508,8 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H501" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>